--- a/biology/Médecine/Ligament_alvéolo-dentaire/Ligament_alvéolo-dentaire.xlsx
+++ b/biology/Médecine/Ligament_alvéolo-dentaire/Ligament_alvéolo-dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_alv%C3%A9olo-dentaire</t>
+          <t>Ligament_alvéolo-dentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament alvéolo-dentaire ou desmodonte, aussi appelé ligament desmodontal ou ligament parodontal, est un tissu conjonctif dense entourant la racine des dents et situé entre le cément et la corticale alvéolaire interne de l'os alvéolaire. Le desmodonte peut faire plus précisément référence à l'espace anatomique compris entre le cément et l'os alvéolaire.
 En effet la dent n'est pas soudée à l'os. Il existe toujours un espace entre la dent et l'os alvéolaire, visible à la radiographie.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_alv%C3%A9olo-dentaire</t>
+          <t>Ligament_alvéolo-dentaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est composé de tissu conjonctif mou non calcifié. Sa largeur moyenne est de 0,25 mm à + ou - 50 % : il est plus étroit dans les régions moyennes et est élargi dans les régions apicales et coronaires. Il possède des cellules conjonctives, une matrice extracellulaire et un réseau fibreux dense. Ses cellules sont très actives et ont un fort potentiel de différenciation, surtout des fibroblastes mais aussi des cellules faiblement différenciées capables de se différencier sous l'influence de certains facteurs en cémentoblastes, ostéoblastes ou fibroblastes.
 C'est pourquoi les cellules du desmodonte jouent un grand rôle dans la cicatrisation.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_alv%C3%A9olo-dentaire</t>
+          <t>Ligament_alvéolo-dentaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,12 +568,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La desmodontite
-C'est une inflammation du desmodonte.
+          <t>La desmodontite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une inflammation du desmodonte.
 Elle peut être provoquée par les microbes de la plaque dentaire ou par des forces occlusales trop importantes et non physiologiques (bruxisme, « grincement » des dents).
 Ceci peut entraîner un élargissement réversible du desmodonte (traumatisme occlusal) ou une récession parodontale (« déchaussement ») irréversible de la racine dentaire (« parodontolyse »). Une desmodontite légère et éphémère s'observe souvent à la suite d'un traitement endodontique. Les signes d'une desmodontite sont une sensibilité à la pression.
-Arthrite dentaire
-Par extension, quand l'inflammation touche le ligament alvéolo-dentaire, on parle aussi d'arthrite dentaire[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ligament_alvéolo-dentaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_alv%C3%A9olo-dentaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pathologies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arthrite dentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par extension, quand l'inflammation touche le ligament alvéolo-dentaire, on parle aussi d'arthrite dentaire.
 </t>
         </is>
       </c>
